--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H2">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I2">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J2">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>55.89240779297423</v>
+        <v>65.9381267614225</v>
       </c>
       <c r="R2">
-        <v>55.89240779297423</v>
+        <v>263.75250704569</v>
       </c>
       <c r="S2">
-        <v>0.03328005851857084</v>
+        <v>0.03259109201501243</v>
       </c>
       <c r="T2">
-        <v>0.03328005851857084</v>
+        <v>0.02006603539286161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H3">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I3">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J3">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>14.29867279733022</v>
+        <v>15.765420794515</v>
       </c>
       <c r="R3">
-        <v>14.29867279733022</v>
+        <v>94.59252476709</v>
       </c>
       <c r="S3">
-        <v>0.008513869525815331</v>
+        <v>0.007792339652421512</v>
       </c>
       <c r="T3">
-        <v>0.008513869525815331</v>
+        <v>0.007196507707688852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H4">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I4">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J4">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>2.787720773399459</v>
+        <v>2.97303478518</v>
       </c>
       <c r="R4">
-        <v>2.787720773399459</v>
+        <v>17.83820871108</v>
       </c>
       <c r="S4">
-        <v>0.001659894682222504</v>
+        <v>0.001469475324924195</v>
       </c>
       <c r="T4">
-        <v>0.001659894682222504</v>
+        <v>0.001357113649273396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H5">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I5">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J5">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>3.961494139766314</v>
+        <v>4.240913837900001</v>
       </c>
       <c r="R5">
-        <v>3.961494139766314</v>
+        <v>25.44548302740001</v>
       </c>
       <c r="S5">
-        <v>0.00235879544285746</v>
+        <v>0.002096147098913379</v>
       </c>
       <c r="T5">
-        <v>0.00235879544285746</v>
+        <v>0.001935867714530645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H6">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I6">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J6">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>41.92134806109193</v>
+        <v>47.53690393350335</v>
       </c>
       <c r="R6">
-        <v>41.92134806109193</v>
+        <v>285.22142360102</v>
       </c>
       <c r="S6">
-        <v>0.02496125988735607</v>
+        <v>0.02349596032370196</v>
       </c>
       <c r="T6">
-        <v>0.02496125988735607</v>
+        <v>0.02169936977997709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H7">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I7">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J7">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>6.845264861870493</v>
+        <v>7.266820471975001</v>
       </c>
       <c r="R7">
-        <v>6.845264861870493</v>
+        <v>29.06728188790001</v>
       </c>
       <c r="S7">
-        <v>0.004075881218464933</v>
+        <v>0.003591755275602919</v>
       </c>
       <c r="T7">
-        <v>0.004075881218464933</v>
+        <v>0.002211410665513967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H8">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I8">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J8">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>409.4122097341563</v>
+        <v>516.4497553406533</v>
       </c>
       <c r="R8">
-        <v>409.4122097341563</v>
+        <v>3098.698532043919</v>
       </c>
       <c r="S8">
-        <v>0.2437766207646334</v>
+        <v>0.255264477839024</v>
       </c>
       <c r="T8">
-        <v>0.2437766207646334</v>
+        <v>0.2357459844164831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H9">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I9">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J9">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>104.7378607825247</v>
+        <v>123.4801185910133</v>
       </c>
       <c r="R9">
-        <v>104.7378607825247</v>
+        <v>1111.32106731912</v>
       </c>
       <c r="S9">
-        <v>0.06236414342469075</v>
+        <v>0.0610322449951495</v>
       </c>
       <c r="T9">
-        <v>0.06236414342469075</v>
+        <v>0.08454823091329018</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H10">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I10">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J10">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>20.42007075785256</v>
+        <v>23.28581600416</v>
       </c>
       <c r="R10">
-        <v>20.42007075785256</v>
+        <v>209.57234403744</v>
       </c>
       <c r="S10">
-        <v>0.01215873812936925</v>
+        <v>0.01150942875253521</v>
       </c>
       <c r="T10">
-        <v>0.01215873812936925</v>
+        <v>0.01594406104390794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H11">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I11">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J11">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>29.01796744234215</v>
+        <v>33.21627443146667</v>
       </c>
       <c r="R11">
-        <v>29.01796744234215</v>
+        <v>298.9464698832</v>
       </c>
       <c r="S11">
-        <v>0.01727819023557119</v>
+        <v>0.01641773446656647</v>
       </c>
       <c r="T11">
-        <v>0.01727819023557119</v>
+        <v>0.02274355801368051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H12">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I12">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J12">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>307.0741165472525</v>
+        <v>372.3251419461512</v>
       </c>
       <c r="R12">
-        <v>307.0741165472525</v>
+        <v>3350.92627751536</v>
       </c>
       <c r="S12">
-        <v>0.1828413727689793</v>
+        <v>0.1840283240768212</v>
       </c>
       <c r="T12">
-        <v>0.1828413727689793</v>
+        <v>0.2549352271060886</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H13">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I13">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J13">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>50.14160462892522</v>
+        <v>56.91620067453334</v>
       </c>
       <c r="R13">
-        <v>50.14160462892522</v>
+        <v>341.4972040472</v>
       </c>
       <c r="S13">
-        <v>0.02985585345413289</v>
+        <v>0.02813184457059651</v>
       </c>
       <c r="T13">
-        <v>0.02985585345413289</v>
+        <v>0.02598077667480649</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H14">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I14">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J14">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>34.8854483057145</v>
+        <v>0.1309124737851667</v>
       </c>
       <c r="R14">
-        <v>34.8854483057145</v>
+        <v>0.7854748427110001</v>
       </c>
       <c r="S14">
-        <v>0.02077186879049958</v>
+        <v>6.470581875160971E-05</v>
       </c>
       <c r="T14">
-        <v>0.02077186879049958</v>
+        <v>5.975816560223628E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H15">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I15">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J15">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>8.924568298420871</v>
+        <v>0.03130040748566667</v>
       </c>
       <c r="R15">
-        <v>8.924568298420871</v>
+        <v>0.281703667371</v>
       </c>
       <c r="S15">
-        <v>0.005313962431616043</v>
+        <v>1.54707831504484E-05</v>
       </c>
       <c r="T15">
-        <v>0.005313962431616043</v>
+        <v>2.143174229159529E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H16">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I16">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J16">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>1.7399659948702</v>
+        <v>0.005902614428</v>
       </c>
       <c r="R16">
-        <v>1.7399659948702</v>
+        <v>0.053123529852</v>
       </c>
       <c r="S16">
-        <v>0.00103602926436965</v>
+        <v>2.91747217278603E-06</v>
       </c>
       <c r="T16">
-        <v>0.00103602926436965</v>
+        <v>4.041586721370243E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H17">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I17">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J17">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>2.472580883222935</v>
+        <v>0.008419840673333335</v>
       </c>
       <c r="R17">
-        <v>2.472580883222935</v>
+        <v>0.07577856606000002</v>
       </c>
       <c r="S17">
-        <v>0.001472250699779346</v>
+        <v>4.16165601927438E-06</v>
       </c>
       <c r="T17">
-        <v>0.001472250699779346</v>
+        <v>5.765159943358762E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H18">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I18">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J18">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>26.16536088600784</v>
+        <v>0.09437898823755558</v>
       </c>
       <c r="R18">
-        <v>26.16536088600784</v>
+        <v>0.8494108941380002</v>
       </c>
       <c r="S18">
-        <v>0.01557966056268781</v>
+        <v>4.664849368656211E-05</v>
       </c>
       <c r="T18">
-        <v>0.01557966056268781</v>
+        <v>6.462235849725114E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H19">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I19">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J19">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>4.272496800678617</v>
+        <v>0.01442742600166667</v>
       </c>
       <c r="R19">
-        <v>4.272496800678617</v>
+        <v>0.08656455601000002</v>
       </c>
       <c r="S19">
-        <v>0.002543975991760091</v>
+        <v>7.131011926702139E-06</v>
       </c>
       <c r="T19">
-        <v>0.002543975991760091</v>
+        <v>6.585747616659085E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H20">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I20">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J20">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>246.5378907315794</v>
+        <v>0.4416341582531667</v>
       </c>
       <c r="R20">
-        <v>246.5378907315794</v>
+        <v>2.649804949519</v>
       </c>
       <c r="S20">
-        <v>0.1467962421834212</v>
+        <v>0.0002182855382088656</v>
       </c>
       <c r="T20">
-        <v>0.1467962421834212</v>
+        <v>0.0002015945952393062</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H21">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I21">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J21">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>63.07054519411709</v>
+        <v>0.1055921465176667</v>
       </c>
       <c r="R21">
-        <v>63.07054519411709</v>
+        <v>0.9503293186589999</v>
       </c>
       <c r="S21">
-        <v>0.03755414228410161</v>
+        <v>5.219079661864672E-05</v>
       </c>
       <c r="T21">
-        <v>0.03755414228410161</v>
+        <v>7.230013453400902E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H22">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I22">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J22">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>12.29646076383387</v>
+        <v>0.019912511612</v>
       </c>
       <c r="R22">
-        <v>12.29646076383387</v>
+        <v>0.179212604508</v>
       </c>
       <c r="S22">
-        <v>0.007321690904916462</v>
+        <v>9.842113054633812E-06</v>
       </c>
       <c r="T22">
-        <v>0.007321690904916462</v>
+        <v>1.363432145227528E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H23">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I23">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J23">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>17.47390115990435</v>
+        <v>0.02840439219333334</v>
       </c>
       <c r="R23">
-        <v>17.47390115990435</v>
+        <v>0.25563952974</v>
       </c>
       <c r="S23">
-        <v>0.01040449814406528</v>
+        <v>1.403937607983476E-05</v>
       </c>
       <c r="T23">
-        <v>0.01040449814406528</v>
+        <v>1.944880793375254E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H24">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I24">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J24">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>184.9124261364375</v>
+        <v>0.3183881858002223</v>
       </c>
       <c r="R24">
-        <v>184.9124261364375</v>
+        <v>2.865493672202</v>
       </c>
       <c r="S24">
-        <v>0.1101025453300493</v>
+        <v>0.0001573690241072912</v>
       </c>
       <c r="T24">
-        <v>0.1101025453300493</v>
+        <v>0.0002180039844492008</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.238679</v>
+      </c>
+      <c r="I25">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J25">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.611755</v>
+      </c>
+      <c r="N25">
+        <v>1.22351</v>
+      </c>
+      <c r="O25">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P25">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q25">
+        <v>0.04867102388166667</v>
+      </c>
+      <c r="R25">
+        <v>0.29202614329</v>
+      </c>
+      <c r="S25">
+        <v>2.405651928104676E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.221706626615276E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.606016</v>
+      </c>
+      <c r="H26">
+        <v>25.818048</v>
+      </c>
+      <c r="I26">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J26">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.5509805</v>
+      </c>
+      <c r="N26">
+        <v>11.101961</v>
+      </c>
+      <c r="O26">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P26">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q26">
+        <v>47.771826998688</v>
+      </c>
+      <c r="R26">
+        <v>286.630961992128</v>
+      </c>
+      <c r="S26">
+        <v>0.02361207522732342</v>
+      </c>
+      <c r="T26">
+        <v>0.02180660609617511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.606016</v>
+      </c>
+      <c r="H27">
+        <v>25.818048</v>
+      </c>
+      <c r="I27">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J27">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.327207</v>
+      </c>
+      <c r="N27">
+        <v>3.981621</v>
+      </c>
+      <c r="O27">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P27">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q27">
+        <v>11.421964677312</v>
+      </c>
+      <c r="R27">
+        <v>102.797682095808</v>
+      </c>
+      <c r="S27">
+        <v>0.005645509208009329</v>
+      </c>
+      <c r="T27">
+        <v>0.007820748133708883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.606016</v>
+      </c>
+      <c r="H28">
+        <v>25.818048</v>
+      </c>
+      <c r="I28">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J28">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.250284</v>
+      </c>
+      <c r="N28">
+        <v>0.750852</v>
+      </c>
+      <c r="O28">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P28">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q28">
+        <v>2.153948108544</v>
+      </c>
+      <c r="R28">
+        <v>19.385532976896</v>
+      </c>
+      <c r="S28">
+        <v>0.001064627165632345</v>
+      </c>
+      <c r="T28">
+        <v>0.001474832581426405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.606016</v>
+      </c>
+      <c r="H29">
+        <v>25.818048</v>
+      </c>
+      <c r="I29">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J29">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.07106</v>
+      </c>
+      <c r="O29">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P29">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q29">
+        <v>3.072519832320001</v>
+      </c>
+      <c r="R29">
+        <v>27.65267849088</v>
+      </c>
+      <c r="S29">
+        <v>0.001518647579046442</v>
+      </c>
+      <c r="T29">
+        <v>0.002103789008569685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.606016</v>
+      </c>
+      <c r="H30">
+        <v>25.818048</v>
+      </c>
+      <c r="I30">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J30">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N30">
+        <v>12.005638</v>
+      </c>
+      <c r="O30">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P30">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q30">
+        <v>34.44023757273601</v>
+      </c>
+      <c r="R30">
+        <v>309.962138154624</v>
+      </c>
+      <c r="S30">
+        <v>0.01702270002017438</v>
+      </c>
+      <c r="T30">
+        <v>0.02358161939131938</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.606016</v>
+      </c>
+      <c r="H31">
+        <v>25.818048</v>
+      </c>
+      <c r="I31">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J31">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.611755</v>
+      </c>
+      <c r="N31">
+        <v>1.22351</v>
+      </c>
+      <c r="O31">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P31">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q31">
+        <v>5.26477331808</v>
+      </c>
+      <c r="R31">
+        <v>31.58863990848</v>
+      </c>
+      <c r="S31">
+        <v>0.002602207858718156</v>
+      </c>
+      <c r="T31">
+        <v>0.002403233142751196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.592882</v>
+      </c>
+      <c r="H32">
+        <v>107.185764</v>
+      </c>
+      <c r="I32">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J32">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.5509805</v>
+      </c>
+      <c r="N32">
+        <v>11.101961</v>
+      </c>
+      <c r="O32">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P32">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q32">
+        <v>297.493042920801</v>
+      </c>
+      <c r="R32">
+        <v>1189.972171683204</v>
+      </c>
+      <c r="S32">
+        <v>0.1470412280703484</v>
+      </c>
+      <c r="T32">
+        <v>0.09053193078987172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.592882</v>
+      </c>
+      <c r="H33">
+        <v>107.185764</v>
+      </c>
+      <c r="I33">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J33">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.327207</v>
+      </c>
+      <c r="N33">
+        <v>3.981621</v>
+      </c>
+      <c r="O33">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P33">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q33">
+        <v>71.12884814057398</v>
+      </c>
+      <c r="R33">
+        <v>426.7730888434439</v>
+      </c>
+      <c r="S33">
+        <v>0.03515669838572894</v>
+      </c>
+      <c r="T33">
+        <v>0.03246848343310698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.592882</v>
+      </c>
+      <c r="H34">
+        <v>107.185764</v>
+      </c>
+      <c r="I34">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J34">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.250284</v>
+      </c>
+      <c r="N34">
+        <v>0.750852</v>
+      </c>
+      <c r="O34">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P34">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q34">
+        <v>13.413440878488</v>
+      </c>
+      <c r="R34">
+        <v>80.48064527092799</v>
+      </c>
+      <c r="S34">
+        <v>0.006629831743483709</v>
+      </c>
+      <c r="T34">
+        <v>0.006122889577565329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="H25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="I25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="J25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="N25">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="O25">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="P25">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="Q25">
-        <v>30.19403219835313</v>
-      </c>
-      <c r="R25">
-        <v>30.19403219835313</v>
-      </c>
-      <c r="S25">
-        <v>0.01797845536006979</v>
-      </c>
-      <c r="T25">
-        <v>0.01797845536006979</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.592882</v>
+      </c>
+      <c r="H35">
+        <v>107.185764</v>
+      </c>
+      <c r="I35">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J35">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.07106</v>
+      </c>
+      <c r="O35">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P35">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q35">
+        <v>19.13373073164</v>
+      </c>
+      <c r="R35">
+        <v>114.80238438984</v>
+      </c>
+      <c r="S35">
+        <v>0.009457186752083849</v>
+      </c>
+      <c r="T35">
+        <v>0.008734054262287537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.592882</v>
+      </c>
+      <c r="H36">
+        <v>107.185764</v>
+      </c>
+      <c r="I36">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J36">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N36">
+        <v>12.005638</v>
+      </c>
+      <c r="O36">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P36">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q36">
+        <v>214.472246889572</v>
+      </c>
+      <c r="R36">
+        <v>1286.833481337432</v>
+      </c>
+      <c r="S36">
+        <v>0.1060067229136691</v>
+      </c>
+      <c r="T36">
+        <v>0.09790104545532577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.592882</v>
+      </c>
+      <c r="H37">
+        <v>107.185764</v>
+      </c>
+      <c r="I37">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J37">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.611755</v>
+      </c>
+      <c r="N37">
+        <v>1.22351</v>
+      </c>
+      <c r="O37">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P37">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q37">
+        <v>32.78571352791</v>
+      </c>
+      <c r="R37">
+        <v>131.14285411164</v>
+      </c>
+      <c r="S37">
+        <v>0.01620492208145497</v>
+      </c>
+      <c r="T37">
+        <v>0.009977221379242457</v>
       </c>
     </row>
   </sheetData>
